--- a/data/Game/CellEffect.xlsx
+++ b/data/Game/CellEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64405573-FA13-4CCA-BFD4-24EE78C7F86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71891CD9-CC81-4213-9787-10D05C8AE9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2940" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CellEffect" sheetId="1" r:id="rId1"/>
@@ -510,12 +510,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -549,7 +549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -566,7 +566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -583,7 +583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -600,7 +600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -617,7 +617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>

--- a/data/Game/CellEffect.xlsx
+++ b/data/Game/CellEffect.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
